--- a/Excel/APITestData.xlsx
+++ b/Excel/APITestData.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -60,6 +60,24 @@
   </si>
   <si>
     <t>edhwywyf0e9r@email.com</t>
+  </si>
+  <si>
+    <t>Gayatri</t>
+  </si>
+  <si>
+    <t>oxipfmjd8k5c@email.com</t>
+  </si>
+  <si>
+    <t>Laal</t>
+  </si>
+  <si>
+    <t>xvutywom0f2x@email.com</t>
+  </si>
+  <si>
+    <t>Gouranga</t>
+  </si>
+  <si>
+    <t>phqfvitv9e3z@email.com</t>
   </si>
 </sst>
 </file>
@@ -434,10 +452,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/APITestData.xlsx
+++ b/Excel/APITestData.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -62,22 +62,40 @@
     <t>edhwywyf0e9r@email.com</t>
   </si>
   <si>
-    <t>Gayatri</t>
-  </si>
-  <si>
-    <t>oxipfmjd8k5c@email.com</t>
-  </si>
-  <si>
-    <t>Laal</t>
-  </si>
-  <si>
-    <t>xvutywom0f2x@email.com</t>
-  </si>
-  <si>
-    <t>Gouranga</t>
-  </si>
-  <si>
-    <t>phqfvitv9e3z@email.com</t>
+    <t>Chandraprabha</t>
+  </si>
+  <si>
+    <t>lqjpront8c3q@email.com</t>
+  </si>
+  <si>
+    <t>Bhadraksh</t>
+  </si>
+  <si>
+    <t>lgghfmsa0m2v@email.com</t>
+  </si>
+  <si>
+    <t>Sher</t>
+  </si>
+  <si>
+    <t>vcreylqt7u8i@email.com</t>
+  </si>
+  <si>
+    <t>Dipesh</t>
+  </si>
+  <si>
+    <t>ufoexbbp4y3o@email.com</t>
+  </si>
+  <si>
+    <t>Mani</t>
+  </si>
+  <si>
+    <t>zmxtkkqh0b8m@email.com</t>
+  </si>
+  <si>
+    <t>Shubhaprada</t>
+  </si>
+  <si>
+    <t>ixvsngbf6s8v@email.com</t>
   </si>
 </sst>
 </file>
@@ -452,10 +470,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
